--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Colq-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Colq-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Colq</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.0007963333333333334</v>
+        <v>0.004118333333333333</v>
       </c>
       <c r="H2">
-        <v>0.002389</v>
+        <v>0.012355</v>
       </c>
       <c r="I2">
-        <v>0.006887445475591229</v>
+        <v>0.005796697547980517</v>
       </c>
       <c r="J2">
-        <v>0.006887445475591229</v>
+        <v>0.005796697547980516</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2865536666666667</v>
+        <v>0.4200680000000001</v>
       </c>
       <c r="N2">
-        <v>0.859661</v>
+        <v>1.260204</v>
       </c>
       <c r="O2">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="P2">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="Q2">
-        <v>0.0002281922365555556</v>
+        <v>0.001729980046666667</v>
       </c>
       <c r="R2">
-        <v>0.002053730129</v>
+        <v>0.01556982042</v>
       </c>
       <c r="S2">
-        <v>0.0001062907646312732</v>
+        <v>8.472468942873425E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001062907646312732</v>
+        <v>8.472468942873423E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.0007963333333333334</v>
+        <v>0.004118333333333333</v>
       </c>
       <c r="H3">
-        <v>0.002389</v>
+        <v>0.012355</v>
       </c>
       <c r="I3">
-        <v>0.006887445475591229</v>
+        <v>0.005796697547980517</v>
       </c>
       <c r="J3">
-        <v>0.006887445475591229</v>
+        <v>0.005796697547980516</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>28.169915</v>
       </c>
       <c r="O3">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="P3">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="Q3">
-        <v>0.007477547437222223</v>
+        <v>0.03867103331388889</v>
       </c>
       <c r="R3">
-        <v>0.06729792693500002</v>
+        <v>0.348039299825</v>
       </c>
       <c r="S3">
-        <v>0.003483002956919032</v>
+        <v>0.001893889639779625</v>
       </c>
       <c r="T3">
-        <v>0.003483002956919033</v>
+        <v>0.001893889639779624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.0007963333333333334</v>
+        <v>0.004118333333333333</v>
       </c>
       <c r="H4">
-        <v>0.002389</v>
+        <v>0.012355</v>
       </c>
       <c r="I4">
-        <v>0.006887445475591229</v>
+        <v>0.005796697547980517</v>
       </c>
       <c r="J4">
-        <v>0.006887445475591229</v>
+        <v>0.005796697547980516</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.891623666666666</v>
+        <v>18.93019133333333</v>
       </c>
       <c r="N4">
-        <v>26.674871</v>
+        <v>56.79057399999999</v>
       </c>
       <c r="O4">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="P4">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="Q4">
-        <v>0.007080696313222222</v>
+        <v>0.07796083797444443</v>
       </c>
       <c r="R4">
-        <v>0.063726266819</v>
+        <v>0.7016475417699999</v>
       </c>
       <c r="S4">
-        <v>0.003298151754040924</v>
+        <v>0.003818083218772157</v>
       </c>
       <c r="T4">
-        <v>0.003298151754040924</v>
+        <v>0.003818083218772157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +729,10 @@
         <v>0.277222</v>
       </c>
       <c r="I5">
-        <v>0.7992262074651952</v>
+        <v>0.1300665388625054</v>
       </c>
       <c r="J5">
-        <v>0.7992262074651952</v>
+        <v>0.1300665388625054</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2865536666666667</v>
+        <v>0.4200680000000001</v>
       </c>
       <c r="N5">
-        <v>0.859661</v>
+        <v>1.260204</v>
       </c>
       <c r="O5">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="P5">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="Q5">
-        <v>0.02647966019355555</v>
+        <v>0.03881736369866667</v>
       </c>
       <c r="R5">
-        <v>0.238316941742</v>
+        <v>0.349356273288</v>
       </c>
       <c r="S5">
-        <v>0.01233408888765626</v>
+        <v>0.00190105607873837</v>
       </c>
       <c r="T5">
-        <v>0.01233408888765626</v>
+        <v>0.00190105607873837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +791,10 @@
         <v>0.277222</v>
       </c>
       <c r="I6">
-        <v>0.7992262074651952</v>
+        <v>0.1300665388625054</v>
       </c>
       <c r="J6">
-        <v>0.7992262074651952</v>
+        <v>0.1300665388625054</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +809,10 @@
         <v>28.169915</v>
       </c>
       <c r="O6">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="P6">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="Q6">
         <v>0.8677022417922222</v>
@@ -818,10 +821,10 @@
         <v>7.80932017613</v>
       </c>
       <c r="S6">
-        <v>0.4041712204784462</v>
+        <v>0.04249517391493218</v>
       </c>
       <c r="T6">
-        <v>0.4041712204784462</v>
+        <v>0.04249517391493217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -850,10 +853,10 @@
         <v>0.277222</v>
       </c>
       <c r="I7">
-        <v>0.7992262074651952</v>
+        <v>0.1300665388625054</v>
       </c>
       <c r="J7">
-        <v>0.7992262074651952</v>
+        <v>0.1300665388625054</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.891623666666666</v>
+        <v>18.93019133333333</v>
       </c>
       <c r="N7">
-        <v>26.674871</v>
+        <v>56.79057399999999</v>
       </c>
       <c r="O7">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="P7">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="Q7">
-        <v>0.8216512320402221</v>
+        <v>1.749288500603111</v>
       </c>
       <c r="R7">
-        <v>7.394861088361999</v>
+        <v>15.743596505428</v>
       </c>
       <c r="S7">
-        <v>0.3827208980990929</v>
+        <v>0.08567030886883488</v>
       </c>
       <c r="T7">
-        <v>0.3827208980990928</v>
+        <v>0.08567030886883487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,31 +894,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.02241733333333333</v>
+        <v>0.588616</v>
       </c>
       <c r="H8">
-        <v>0.06725199999999999</v>
+        <v>1.765848</v>
       </c>
       <c r="I8">
-        <v>0.1938863470592136</v>
+        <v>0.8284975128859814</v>
       </c>
       <c r="J8">
-        <v>0.1938863470592136</v>
+        <v>0.8284975128859813</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2865536666666667</v>
+        <v>0.4200680000000001</v>
       </c>
       <c r="N8">
-        <v>0.859661</v>
+        <v>1.260204</v>
       </c>
       <c r="O8">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="P8">
-        <v>0.01543253808802733</v>
+        <v>0.01461602726853518</v>
       </c>
       <c r="Q8">
-        <v>0.006423769063555554</v>
+        <v>0.247258745888</v>
       </c>
       <c r="R8">
-        <v>0.05781392157199999</v>
+        <v>2.225328712992</v>
       </c>
       <c r="S8">
-        <v>0.0029921584357398</v>
+        <v>0.01210934224025508</v>
       </c>
       <c r="T8">
-        <v>0.002992158435739801</v>
+        <v>0.01210934224025508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,31 +956,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.02241733333333333</v>
+        <v>0.588616</v>
       </c>
       <c r="H9">
-        <v>0.06725199999999999</v>
+        <v>1.765848</v>
       </c>
       <c r="I9">
-        <v>0.1938863470592136</v>
+        <v>0.8284975128859814</v>
       </c>
       <c r="J9">
-        <v>0.1938863470592136</v>
+        <v>0.8284975128859813</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +995,22 @@
         <v>28.169915</v>
       </c>
       <c r="O9">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="P9">
-        <v>0.5057031622627903</v>
+        <v>0.3267187263271011</v>
       </c>
       <c r="Q9">
-        <v>0.2104981248422222</v>
+        <v>5.527087562546668</v>
       </c>
       <c r="R9">
-        <v>1.89448312358</v>
+        <v>49.74378806292001</v>
       </c>
       <c r="S9">
-        <v>0.09804893882742516</v>
+        <v>0.2706856521752789</v>
       </c>
       <c r="T9">
-        <v>0.09804893882742517</v>
+        <v>0.2706856521752788</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.02241733333333333</v>
+        <v>0.588616</v>
       </c>
       <c r="H10">
-        <v>0.06725199999999999</v>
+        <v>1.765848</v>
       </c>
       <c r="I10">
-        <v>0.1938863470592136</v>
+        <v>0.8284975128859814</v>
       </c>
       <c r="J10">
-        <v>0.1938863470592136</v>
+        <v>0.8284975128859813</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1051,214 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.891623666666666</v>
+        <v>18.93019133333333</v>
       </c>
       <c r="N10">
-        <v>26.674871</v>
+        <v>56.79057399999999</v>
       </c>
       <c r="O10">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="P10">
-        <v>0.4788642996491824</v>
+        <v>0.6586652464043636</v>
       </c>
       <c r="Q10">
-        <v>0.1993264916102222</v>
+        <v>11.14261350186133</v>
       </c>
       <c r="R10">
-        <v>1.793938424492</v>
+        <v>100.283521516752</v>
       </c>
       <c r="S10">
-        <v>0.09284524979604862</v>
+        <v>0.5457025184704474</v>
       </c>
       <c r="T10">
-        <v>0.09284524979604862</v>
+        <v>0.5457025184704473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.02532033333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.07596099999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.03563925070353282</v>
+      </c>
+      <c r="J11">
+        <v>0.03563925070353281</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.4200680000000001</v>
+      </c>
+      <c r="N11">
+        <v>1.260204</v>
+      </c>
+      <c r="O11">
+        <v>0.01461602726853518</v>
+      </c>
+      <c r="P11">
+        <v>0.01461602726853518</v>
+      </c>
+      <c r="Q11">
+        <v>0.01063626178266667</v>
+      </c>
+      <c r="R11">
+        <v>0.095726356044</v>
+      </c>
+      <c r="S11">
+        <v>0.0005209042601129972</v>
+      </c>
+      <c r="T11">
+        <v>0.0005209042601129971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.02532033333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.07596099999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.03563925070353282</v>
+      </c>
+      <c r="J12">
+        <v>0.03563925070353281</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>9.389971666666668</v>
+      </c>
+      <c r="N12">
+        <v>28.169915</v>
+      </c>
+      <c r="O12">
+        <v>0.3267187263271011</v>
+      </c>
+      <c r="P12">
+        <v>0.3267187263271011</v>
+      </c>
+      <c r="Q12">
+        <v>0.2377572125905555</v>
+      </c>
+      <c r="R12">
+        <v>2.139814913315</v>
+      </c>
+      <c r="S12">
+        <v>0.01164401059711049</v>
+      </c>
+      <c r="T12">
+        <v>0.01164401059711048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.02532033333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.07596099999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.03563925070353282</v>
+      </c>
+      <c r="J13">
+        <v>0.03563925070353281</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.93019133333333</v>
+      </c>
+      <c r="N13">
+        <v>56.79057399999999</v>
+      </c>
+      <c r="O13">
+        <v>0.6586652464043636</v>
+      </c>
+      <c r="P13">
+        <v>0.6586652464043636</v>
+      </c>
+      <c r="Q13">
+        <v>0.4793187546237776</v>
+      </c>
+      <c r="R13">
+        <v>4.313868791613999</v>
+      </c>
+      <c r="S13">
+        <v>0.02347433584630933</v>
+      </c>
+      <c r="T13">
+        <v>0.02347433584630933</v>
       </c>
     </row>
   </sheetData>
